--- a/Dev/Files/Siebel Service/RunManager_Service.xlsx
+++ b/Dev/Files/Siebel Service/RunManager_Service.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanumolu\Documents\QSTAFGdrive\VDI 1\ITAF\ITAFRepo\Dev\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanumolu\Documents\QSTAFGdrive\VDI 1\ITAF\ITAFRepo\Dev\Files\Siebel Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12580" windowHeight="1590"/>
   </bookViews>
   <sheets>
-    <sheet name="RunManager_Service_New_New_11Ju" sheetId="1" r:id="rId1"/>
+    <sheet name="RunManager" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
